--- a/data_processed/20250811/BTCUSDVOLSURFACE_REGULARIZED_20250811.xlsx
+++ b/data_processed/20250811/BTCUSDVOLSURFACE_REGULARIZED_20250811.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6380,7 +6380,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6496,7 +6496,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6554,7 +6554,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6670,7 +6670,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13017,7 +13017,7 @@
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -18275,7 +18275,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18561,7 +18561,7 @@
       </c>
       <c r="G712" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -33929,7 +33929,7 @@
       </c>
       <c r="G1324" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -34536,7 +34536,7 @@
       </c>
       <c r="G1347" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34594,7 +34594,7 @@
       </c>
       <c r="G1349" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34623,7 +34623,7 @@
       </c>
       <c r="G1350" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34739,7 +34739,7 @@
       </c>
       <c r="G1354" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34768,7 +34768,7 @@
       </c>
       <c r="G1355" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34984,7 +34984,7 @@
       </c>
       <c r="G1363" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35358,7 +35358,7 @@
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35532,7 +35532,7 @@
       </c>
       <c r="G1383" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -35561,7 +35561,7 @@
       </c>
       <c r="G1384" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35735,7 +35735,7 @@
       </c>
       <c r="G1390" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35843,7 +35843,7 @@
       </c>
       <c r="G1394" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -36409,7 +36409,7 @@
       </c>
       <c r="G1416" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36438,7 +36438,7 @@
       </c>
       <c r="G1417" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36467,7 +36467,7 @@
       </c>
       <c r="G1418" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36583,7 +36583,7 @@
       </c>
       <c r="G1422" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36749,7 +36749,7 @@
       </c>
       <c r="G1428" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -36807,7 +36807,7 @@
       </c>
       <c r="G1430" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -36836,7 +36836,7 @@
       </c>
       <c r="G1431" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37389,7 +37389,7 @@
       </c>
       <c r="G1452" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37621,7 +37621,7 @@
       </c>
       <c r="G1460" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37704,7 +37704,7 @@
       </c>
       <c r="G1463" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38141,7 +38141,7 @@
       </c>
       <c r="G1480" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38170,7 +38170,7 @@
       </c>
       <c r="G1481" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -38199,7 +38199,7 @@
       </c>
       <c r="G1482" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38228,7 +38228,7 @@
       </c>
       <c r="G1483" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38286,7 +38286,7 @@
       </c>
       <c r="G1485" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38373,7 +38373,7 @@
       </c>
       <c r="G1488" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38402,7 +38402,7 @@
       </c>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38460,7 +38460,7 @@
       </c>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38630,7 +38630,7 @@
       </c>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38659,7 +38659,7 @@
       </c>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38688,7 +38688,7 @@
       </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41649,7 +41649,7 @@
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41707,7 +41707,7 @@
       </c>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41736,7 +41736,7 @@
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -41823,7 +41823,7 @@
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41881,7 +41881,7 @@
       </c>
       <c r="G1624" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -42680,7 +42680,7 @@
       </c>
       <c r="G1655" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42709,7 +42709,7 @@
       </c>
       <c r="G1656" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -42767,7 +42767,7 @@
       </c>
       <c r="G1658" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42883,7 +42883,7 @@
       </c>
       <c r="G1662" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250811/BTCUSDVOLSURFACE_REGULARIZED_20250811.xlsx
+++ b/data_processed/20250811/BTCUSDVOLSURFACE_REGULARIZED_20250811.xlsx
@@ -6467,7 +6467,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -13017,7 +13017,7 @@
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -18275,7 +18275,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -33929,7 +33929,7 @@
       </c>
       <c r="G1324" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -34984,7 +34984,7 @@
       </c>
       <c r="G1363" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -35358,7 +35358,7 @@
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -35532,7 +35532,7 @@
       </c>
       <c r="G1383" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -35561,7 +35561,7 @@
       </c>
       <c r="G1384" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -35843,7 +35843,7 @@
       </c>
       <c r="G1394" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -36583,7 +36583,7 @@
       </c>
       <c r="G1422" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -37389,7 +37389,7 @@
       </c>
       <c r="G1452" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -38170,7 +38170,7 @@
       </c>
       <c r="G1481" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -41736,7 +41736,7 @@
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -41881,7 +41881,7 @@
       </c>
       <c r="G1624" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -42709,7 +42709,7 @@
       </c>
       <c r="G1656" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -42883,7 +42883,7 @@
       </c>
       <c r="G1662" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
